--- a/PLC_DB_Access.xlsx
+++ b/PLC_DB_Access.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prolite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prolite\Plc_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4E9C06-2A0B-4256-8485-1C1BAA6C1467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6AB7F4-AD6F-4AC7-8A92-8B74416D8C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="1290" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLC_DB" sheetId="1" r:id="rId1"/>
@@ -336,7 +336,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PLC_DB_Access.xlsx
+++ b/PLC_DB_Access.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prolite\Plc_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prolite\PLC_DATA-1\PLC_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6AB7F4-AD6F-4AC7-8A92-8B74416D8C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88A49E1-B807-4784-9A9C-30C7393450A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -336,7 +336,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
